--- a/sbqd.xlsx
+++ b/sbqd.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
-  <si>
-    <t>内蒙古自治区药品智慧监管平台密码应用方案设备清单</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+  <si>
+    <t>朝阳区政协密码应用方案设备清单</t>
   </si>
   <si>
     <t>重要说明：
@@ -104,9 +104,6 @@
 最大并发连接数≥5100</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>台</t>
   </si>
   <si>
@@ -116,7 +113,7 @@
     <t>3年免费维保</t>
   </si>
   <si>
-    <t>一主一备，可按需动态扩展</t>
+    <t/>
   </si>
   <si>
     <t>2</t>
@@ -151,9 +148,6 @@
 最大并发连接数≥5100</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -189,6 +183,9 @@
     <t>套</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>国密数字证书</t>
   </si>
   <si>
@@ -211,13 +208,10 @@
     <t>提供个人有效身份证书，有效期1年。</t>
   </si>
   <si>
-    <t>按需</t>
+    <t>30</t>
   </si>
   <si>
     <t>个</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>5</t>
@@ -256,6 +250,9 @@
 SM4算法 1.95Mbps
 SM7算法 2Mbps
 SM3算法 3Mbps</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>SSL VPN安全网关</t>
@@ -283,38 +280,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>时间戳服务器</t>
-  </si>
-  <si>
-    <t>QuickTSS-1000</t>
-  </si>
-  <si>
-    <t>1、	遵循GB/T 20520-2006《信息安全技术公钥基础设施时间戳规范》、GM/T 0033-2014《时间戳接口规范》GB/T 37092-2018《信息安全技术 密码模块安全要求》、和GM/T 0028-2014《密码模块安全技术要求》；
-2、	支持SM2、SM3、SM4等国产密码算法；支持RSA、SHA1、SHA256等国际算法；
-3、	具有商用密码产品认证证书；
-4、	采用标准的时间戳请求、时间戳应答以及时间戳编码格式；
-5、	时间同步功能≥支持NPT协议，能够通过授时中心、卫星（北斗、GPS）、CDMA等方式进行时间同步，确保时间的有效性；
-6、	提供可信赖的且不可抵赖的时间戳服务≥支持标准的时间戳请求、时间戳应答以及时间戳编码格式，满足应用系统的签发时间戳、验证时间戳、解析时间戳的要求；
-7、	密钥管理≥支持对称与非对称密钥的生成及管理；
-8、	密钥的安全存储≥设备内可存储至少200个对称密钥以及200对非对称密钥，并且支持加密存储或微电保护存储；
-9、	保证不可否认性≥时间戳基于国家公钥密码技术标准体系，采用先进精准的时间源设备和时间同步技术可保证时间的真实可靠，实现对各类电子数据的签发时间戳功能，满足《中华人民共和国电子签名法》的要求，确保电子数据生成、发送和接收等时间的真实性和完整性，防止发生电子数据操作的篡改和抵赖。</t>
-  </si>
-  <si>
-    <t>标准2U机架式设备，CPU：8核，内存：16G，硬盘：120G SSD存储，2个10/100/1000Mbps自适应网口，1个Console口，2个USB口，300W冗余电源。
-SM2签发(tps)≥4000
-SM2验证(tps)≥2600
-RSA 2048签发(tps)≥900
-RSA 2048验证(tps)≥9000
-RSA 1024签发(tps)≥4000
-RSA 1024验证(tps)≥10000
-时间源授时精度≥ ＜15ms
-守时精度 ≥&lt;1ms(72小时)
-时间同步协议≥ NTP</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>协同签名系统</t>
   </si>
   <si>
@@ -341,34 +306,7 @@
 客户端SDK数量：10000.</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>安全电子签章系统</t>
-  </si>
-  <si>
-    <t>SC900-2000</t>
-  </si>
-  <si>
-    <t>1、	遵循GM∕T 0031-2014《安全电子签章密码技术规范》、GM∕T 0047-2016《安全电子签章密码检测规范》；
-2、	支持SM2、SM3国产密码算法，以及RSA、SHA1、SHA256国际算法
-3、	具有商用密码产品认证证书；
-4、	提供电子印章管理、电子签章/验章等功能的密码应用系统；
-5、	签章可视化：电子签章将传统印章与电子签名技术进行结合，通过采用密码、图像处理等技术，使电子签名操作和纸质文件盖章操作具有相同的可视效果；
-6、	不可否认性保护：电子签章基于公钥密码技术标准体系，以电子形式对电子文档进行数字签名及签章，以确保文档来源的真实性以及文档的完整性，防止对文档未经授权的篡改，并确保签章行为的不可否认性。</t>
-  </si>
-  <si>
-    <t>1、标准2U机架式设备，配置多个网口；
-2、旁路模式部署，需要配置网络IP地址，与业务系统之间保持网络互通；
-3、可独立工作，对外提供各类电子签名、电子印章服务；
-4、一般与其他密码设备一起集中部署，构建密码基础服务平台。</t>
-  </si>
-  <si>
-    <t>标准2U机架式产品，冗余电源，4个千兆网口，CPU：G4400，8GB内存，1TB监控级硬盘，CentOS7.6。
-客户端数量：2000.</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>8</t>
   </si>
   <si>
     <t>可信浏览器</t>
@@ -391,7 +329,7 @@
 5、超过1000以上，建议配置网络版本，进行统一管理和维护。</t>
   </si>
   <si>
-    <t>11</t>
+    <t>9</t>
   </si>
   <si>
     <t>密码应用技术服务</t>
@@ -694,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="14.0" ySplit="3.0" state="frozen" topLeftCell="O4" activePane="bottomRight"/>
@@ -802,39 +740,39 @@
         <v>23</v>
       </c>
       <c r="I4" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="J4" t="s" s="5">
-        <v>25</v>
-      </c>
       <c r="K4" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="L4" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s" s="4">
+      <c r="N4" t="s" s="4">
         <v>27</v>
-      </c>
-      <c r="N4" t="s" s="4">
-        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="4">
         <v>29</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>30</v>
       </c>
       <c r="C5" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D5" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="4">
         <v>31</v>
-      </c>
-      <c r="E5" t="s" s="4">
-        <v>32</v>
       </c>
       <c r="F5" t="s" s="5">
         <v>21</v>
@@ -843,245 +781,245 @@
         <v>22</v>
       </c>
       <c r="H5" t="s" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="5">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="L5" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s" s="4">
+      <c r="N5" t="s" s="4">
         <v>27</v>
-      </c>
-      <c r="N5" t="s" s="4">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D6" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="E6" t="s" s="4">
+      <c r="G6" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="H6" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="G6" t="s" s="4">
+      <c r="I6" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="H6" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s" s="5">
-        <v>42</v>
-      </c>
       <c r="K6" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="L6" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s" s="4">
+      <c r="N6" t="s" s="4">
         <v>27</v>
-      </c>
-      <c r="N6" t="s" s="4">
-        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="5">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="D7" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="E7" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="E7" t="s" s="4">
+      <c r="F7" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="G7" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="G7" t="s" s="4">
+      <c r="H7" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="H7" t="s" s="4">
+      <c r="I7" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="I7" t="s" s="5">
+      <c r="J7" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="J7" t="s" s="5">
-        <v>51</v>
-      </c>
       <c r="K7" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s" s="4">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="D8" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="E8" t="s" s="4">
         <v>55</v>
-      </c>
-      <c r="D8" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s" s="4">
-        <v>57</v>
       </c>
       <c r="F8" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="J8" t="s" s="5">
-        <v>51</v>
-      </c>
       <c r="K8" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="L8" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s" s="4">
+      <c r="N8" t="s" s="4">
         <v>27</v>
-      </c>
-      <c r="N8" t="s" s="4">
-        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="5">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s" s="5">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="C10" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="C10" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s" s="5">
+      <c r="E10" t="s" s="4">
         <v>65</v>
-      </c>
-      <c r="E10" t="s" s="4">
-        <v>66</v>
       </c>
       <c r="F10" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s" s="4">
         <v>67</v>
       </c>
       <c r="I10" t="s" s="5">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="L10" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s" s="4">
+      <c r="N10" t="s" s="4">
         <v>27</v>
-      </c>
-      <c r="N10" t="s" s="4">
-        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1092,215 +1030,127 @@
         <v>69</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="F11" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s" s="4">
         <v>71</v>
       </c>
-      <c r="F11" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s" s="4">
-        <v>72</v>
-      </c>
       <c r="H11" t="s" s="4">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s" s="5">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s" s="4">
         <v>27</v>
-      </c>
-      <c r="N11" t="s" s="4">
-        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="5">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s" s="4">
         <v>74</v>
       </c>
-      <c r="B12" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>77</v>
-      </c>
       <c r="F12" t="s" s="5">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s" s="4">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s" s="5">
         <v>16</v>
       </c>
       <c r="J12" t="s" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="N12" t="s" s="4">
-        <v>52</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="I13" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="K13" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s" s="4">
-        <v>52</v>
-      </c>
+      <c r="A13" t="s" s="3">
+        <v>75</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="4">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="K14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="3">
-        <v>87</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
+      <c r="A14" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sbqd.xlsx
+++ b/sbqd.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
-  <si>
-    <t>朝阳区政协密码应用方案设备清单</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
+  <si>
+    <t>武清政务云密码应用方案设备清单</t>
   </si>
   <si>
     <t>重要说明：
@@ -104,6 +104,9 @@
 最大并发连接数≥5100</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>台</t>
   </si>
   <si>
@@ -113,10 +116,7 @@
     <t>3年免费维保</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>可按需动态扩展</t>
   </si>
   <si>
     <t>签名验签服务器</t>
@@ -183,6 +183,9 @@
     <t>套</t>
   </si>
   <si>
+    <t>一主一备，可按需动态扩展</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -208,10 +211,13 @@
     <t>提供个人有效身份证书，有效期1年。</t>
   </si>
   <si>
-    <t>30</t>
+    <t>按需</t>
   </si>
   <si>
     <t>个</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>5</t>
@@ -280,6 +286,38 @@
     <t>7</t>
   </si>
   <si>
+    <t>时间戳服务器</t>
+  </si>
+  <si>
+    <t>QuickTSS-1000</t>
+  </si>
+  <si>
+    <t>1、	遵循GB/T 20520-2006《信息安全技术公钥基础设施时间戳规范》、GM/T 0033-2014《时间戳接口规范》GB/T 37092-2018《信息安全技术 密码模块安全要求》、和GM/T 0028-2014《密码模块安全技术要求》；
+2、	支持SM2、SM3、SM4等国产密码算法；支持RSA、SHA1、SHA256等国际算法；
+3、	具有商用密码产品认证证书；
+4、	采用标准的时间戳请求、时间戳应答以及时间戳编码格式；
+5、	时间同步功能≥支持NPT协议，能够通过授时中心、卫星（北斗、GPS）、CDMA等方式进行时间同步，确保时间的有效性；
+6、	提供可信赖的且不可抵赖的时间戳服务≥支持标准的时间戳请求、时间戳应答以及时间戳编码格式，满足应用系统的签发时间戳、验证时间戳、解析时间戳的要求；
+7、	密钥管理≥支持对称与非对称密钥的生成及管理；
+8、	密钥的安全存储≥设备内可存储至少200个对称密钥以及200对非对称密钥，并且支持加密存储或微电保护存储；
+9、	保证不可否认性≥时间戳基于国家公钥密码技术标准体系，采用先进精准的时间源设备和时间同步技术可保证时间的真实可靠，实现对各类电子数据的签发时间戳功能，满足《中华人民共和国电子签名法》的要求，确保电子数据生成、发送和接收等时间的真实性和完整性，防止发生电子数据操作的篡改和抵赖。</t>
+  </si>
+  <si>
+    <t>标准2U机架式设备，CPU：8核，内存：16G，硬盘：120G SSD存储，2个10/100/1000Mbps自适应网口，1个Console口，2个USB口，300W冗余电源。
+SM2签发(tps)≥4000
+SM2验证(tps)≥2600
+RSA 2048签发(tps)≥900
+RSA 2048验证(tps)≥9000
+RSA 1024签发(tps)≥4000
+RSA 1024验证(tps)≥10000
+时间源授时精度≥ ＜15ms
+守时精度 ≥&lt;1ms(72小时)
+时间同步协议≥ NTP</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>协同签名系统</t>
   </si>
   <si>
@@ -306,7 +344,7 @@
 客户端SDK数量：10000.</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>可信浏览器</t>
@@ -329,7 +367,36 @@
 5、超过1000以上，建议配置网络版本，进行统一管理和维护。</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>密钥管理系统</t>
+  </si>
+  <si>
+    <t>QuickKMS</t>
+  </si>
+  <si>
+    <t>1、	遵循GM/T 0051《密码设备管理对称密钥管理技术规范》及GM/T 0050《密码设备管理设备管理技术规范》；
+2、	支持SM2、SM3、SM4等国产密码算法；
+3、	具有商用密码产品认证证书；
+4、	密钥管理≥支持至少三层密钥结构，支持管理密钥、用户密钥、设备密钥、密钥加密密钥、会话密钥的管理；
+5、	支持对称与非对称密钥的生成、更新、查询、删除、分发、恢复与备份、销毁等密钥全生命周期管理；
+6、	支持物理噪声源随机数≥采用两路独立由国家密码管理局批准使用的物理噪声源产生器芯片生成的真随机数；
+7、	密钥的安全存储≥设备内可存储至少10000个对称密钥以及10000对非对称密钥，并且支持加密存储或微电保护存储；
+8、	身份鉴别≥对管理人员、操作人员、维护人员分别赋予不同的操作权限，并采用数字签名技术，实现对登录用户的强身份认证；
+9、	系统审计≥对各密钥管理操作及其内容进行审计，确保审计信息不可被修改和删除。</t>
+  </si>
+  <si>
+    <t>1、标准2U机架式设备，两个千兆电口，300W冗余电源；
+2、旁路模式部署，需要配置一个管理IP。
+3、管理IP开通9000端口策略.</t>
+  </si>
+  <si>
+    <t>标准2U机架式设备，CPU：8核，内存：16G，硬盘：120G SSD存储，2个10/100/1000Mbps自适应网口，1个Console口，2个USB口，300W冗余电源。
+密钥存储数量≥1000000</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>密码应用技术服务</t>
@@ -632,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="14.0" ySplit="3.0" state="frozen" topLeftCell="O4" activePane="bottomRight"/>
@@ -740,27 +807,27 @@
         <v>23</v>
       </c>
       <c r="I4" t="s" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>29</v>
@@ -784,22 +851,22 @@
         <v>32</v>
       </c>
       <c r="I5" t="s" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -828,329 +895,417 @@
         <v>39</v>
       </c>
       <c r="I6" t="s" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s" s="5">
         <v>40</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s" s="4">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s" s="4">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G8" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s" s="5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s" s="4">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="I9" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s" s="5">
-        <v>24</v>
-      </c>
       <c r="K9" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s" s="4">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G10" t="s" s="4">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s" s="4">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="E11" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s" s="5">
-        <v>50</v>
-      </c>
       <c r="K11" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" t="s" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s" s="4">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="5">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D12" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="5">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="E12" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s" s="5">
+      <c r="K13" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="J12" t="s" s="5">
+      <c r="J14" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="K12" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="L12" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="N12" t="s" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
+      <c r="K14" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="3">
+        <v>89</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:N16"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sbqd.xlsx
+++ b/sbqd.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
-  <si>
-    <t>武清政务云密码应用方案设备清单</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+  <si>
+    <t>余杭区。。。7.14密码应用方案设备清单</t>
   </si>
   <si>
     <t>重要说明：
@@ -116,7 +116,7 @@
     <t>3年免费维保</t>
   </si>
   <si>
-    <t>可按需动态扩展</t>
+    <t>一主一备，可按需动态扩展</t>
   </si>
   <si>
     <t>签名验签服务器</t>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>套</t>
-  </si>
-  <si>
-    <t>一主一备，可按需动态扩展</t>
   </si>
   <si>
     <t>4</t>
@@ -286,67 +283,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>时间戳服务器</t>
-  </si>
-  <si>
-    <t>QuickTSS-1000</t>
-  </si>
-  <si>
-    <t>1、	遵循GB/T 20520-2006《信息安全技术公钥基础设施时间戳规范》、GM/T 0033-2014《时间戳接口规范》GB/T 37092-2018《信息安全技术 密码模块安全要求》、和GM/T 0028-2014《密码模块安全技术要求》；
-2、	支持SM2、SM3、SM4等国产密码算法；支持RSA、SHA1、SHA256等国际算法；
-3、	具有商用密码产品认证证书；
-4、	采用标准的时间戳请求、时间戳应答以及时间戳编码格式；
-5、	时间同步功能≥支持NPT协议，能够通过授时中心、卫星（北斗、GPS）、CDMA等方式进行时间同步，确保时间的有效性；
-6、	提供可信赖的且不可抵赖的时间戳服务≥支持标准的时间戳请求、时间戳应答以及时间戳编码格式，满足应用系统的签发时间戳、验证时间戳、解析时间戳的要求；
-7、	密钥管理≥支持对称与非对称密钥的生成及管理；
-8、	密钥的安全存储≥设备内可存储至少200个对称密钥以及200对非对称密钥，并且支持加密存储或微电保护存储；
-9、	保证不可否认性≥时间戳基于国家公钥密码技术标准体系，采用先进精准的时间源设备和时间同步技术可保证时间的真实可靠，实现对各类电子数据的签发时间戳功能，满足《中华人民共和国电子签名法》的要求，确保电子数据生成、发送和接收等时间的真实性和完整性，防止发生电子数据操作的篡改和抵赖。</t>
-  </si>
-  <si>
-    <t>标准2U机架式设备，CPU：8核，内存：16G，硬盘：120G SSD存储，2个10/100/1000Mbps自适应网口，1个Console口，2个USB口，300W冗余电源。
-SM2签发(tps)≥4000
-SM2验证(tps)≥2600
-RSA 2048签发(tps)≥900
-RSA 2048验证(tps)≥9000
-RSA 1024签发(tps)≥4000
-RSA 1024验证(tps)≥10000
-时间源授时精度≥ ＜15ms
-守时精度 ≥&lt;1ms(72小时)
-时间同步协议≥ NTP</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>协同签名系统</t>
-  </si>
-  <si>
-    <t>SRT1934-2000</t>
-  </si>
-  <si>
-    <t>1、	支持SM2、SM3、SM4等国产密码算法；
-2、	具有商用密码产品认证证书；
-3、	SM2密钥对生成：SM2私钥使用密钥分割技术生成，从生成到运算整个过程中不出现完整的SM2私钥，保障了私钥的安全；
-4、	证书、设备管理：对终端移动终端进行管理，包括设备的查看、挂起、停用；
-5、	支持对接第三方CA系统：导入CA获取的证书和私钥数据，并解析传入的证书相关信息；
-6、	密码运算：支持数据签名/验签，数字信封封装/解析等类型的密码运算；
-7、	支持管理员、审计员、操作员角色：分别赋予不同的操作权限，并采用数字签名技术，实现对登录用户的强身份认证。</t>
-  </si>
-  <si>
-    <t>1、分客户端和服务端，客户端部署在业务系统用户端设备上，一般有移动Android、移动IOS、PC-windows等版本，1、标准2U机架式设备，配置多个网口；
-2、旁路模式部署，需要配置网络IP地址，与业务系统、业务系统用户端之间保持网络互通；
-在业务系统服务端安装特定jar包或库文件；
-4、一般外接密码机或内置密码卡，可外接CA；
-5、一般与其他密码设备一起集中部署，构建密码基础服务平台。</t>
-  </si>
-  <si>
-    <t>标准2U机架式产品，冗余电源，4个千兆网口，CPU：G4400，8GB内存，1TB监控级硬盘，CentOS7.6。
-客户端SDK数量：10000.</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>可信浏览器</t>
   </si>
   <si>
@@ -367,36 +303,7 @@
 5、超过1000以上，建议配置网络版本，进行统一管理和维护。</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>密钥管理系统</t>
-  </si>
-  <si>
-    <t>QuickKMS</t>
-  </si>
-  <si>
-    <t>1、	遵循GM/T 0051《密码设备管理对称密钥管理技术规范》及GM/T 0050《密码设备管理设备管理技术规范》；
-2、	支持SM2、SM3、SM4等国产密码算法；
-3、	具有商用密码产品认证证书；
-4、	密钥管理≥支持至少三层密钥结构，支持管理密钥、用户密钥、设备密钥、密钥加密密钥、会话密钥的管理；
-5、	支持对称与非对称密钥的生成、更新、查询、删除、分发、恢复与备份、销毁等密钥全生命周期管理；
-6、	支持物理噪声源随机数≥采用两路独立由国家密码管理局批准使用的物理噪声源产生器芯片生成的真随机数；
-7、	密钥的安全存储≥设备内可存储至少10000个对称密钥以及10000对非对称密钥，并且支持加密存储或微电保护存储；
-8、	身份鉴别≥对管理人员、操作人员、维护人员分别赋予不同的操作权限，并采用数字签名技术，实现对登录用户的强身份认证；
-9、	系统审计≥对各密钥管理操作及其内容进行审计，确保审计信息不可被修改和删除。</t>
-  </si>
-  <si>
-    <t>1、标准2U机架式设备，两个千兆电口，300W冗余电源；
-2、旁路模式部署，需要配置一个管理IP。
-3、管理IP开通9000端口策略.</t>
-  </si>
-  <si>
-    <t>标准2U机架式设备，CPU：8核，内存：16G，硬盘：120G SSD存储，2个10/100/1000Mbps自适应网口，1个Console口，2个USB口，300W冗余电源。
-密钥存储数量≥1000000</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>8</t>
   </si>
   <si>
     <t>密码应用技术服务</t>
@@ -699,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="14.0" ySplit="3.0" state="frozen" topLeftCell="O4" activePane="bottomRight"/>
@@ -910,83 +817,83 @@
         <v>27</v>
       </c>
       <c r="N6" t="s" s="4">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="C7" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="D7" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="E7" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="E7" t="s" s="4">
+      <c r="F7" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="G7" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="G7" t="s" s="4">
+      <c r="H7" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="H7" t="s" s="4">
+      <c r="I7" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="I7" t="s" s="5">
+      <c r="J7" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="J7" t="s" s="5">
+      <c r="K7" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s" s="4">
         <v>51</v>
-      </c>
-      <c r="K7" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s" s="4">
-        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="C8" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="D8" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="E8" t="s" s="4">
         <v>56</v>
-      </c>
-      <c r="E8" t="s" s="4">
-        <v>57</v>
       </c>
       <c r="F8" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G8" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="H8" t="s" s="4">
-        <v>59</v>
-      </c>
       <c r="I8" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s" s="5">
         <v>50</v>
-      </c>
-      <c r="J8" t="s" s="5">
-        <v>51</v>
       </c>
       <c r="K8" t="s" s="4">
         <v>26</v>
@@ -998,15 +905,15 @@
         <v>27</v>
       </c>
       <c r="N8" t="s" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>60</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>61</v>
       </c>
       <c r="C9" t="s" s="5">
         <v>18</v>
@@ -1015,13 +922,13 @@
         <v>26</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s" s="5">
         <v>21</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s" s="4">
         <v>26</v>
@@ -1042,39 +949,39 @@
         <v>26</v>
       </c>
       <c r="N9" t="s" s="4">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s" s="4">
         <v>64</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>65</v>
       </c>
       <c r="C10" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="E10" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s" s="4">
-        <v>22</v>
-      </c>
       <c r="H10" t="s" s="4">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s" s="5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="4">
         <v>26</v>
@@ -1083,42 +990,42 @@
         <v>26</v>
       </c>
       <c r="M10" t="s" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s" s="4">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s" s="4">
         <v>69</v>
       </c>
-      <c r="B11" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s" s="4">
-        <v>72</v>
-      </c>
       <c r="F11" t="s" s="5">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s" s="4">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s" s="5">
         <v>16</v>
       </c>
       <c r="J11" t="s" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s" s="4">
         <v>26</v>
@@ -1127,185 +1034,53 @@
         <v>26</v>
       </c>
       <c r="M11" t="s" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="K12" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s" s="4">
-        <v>52</v>
-      </c>
+      <c r="A12" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s" s="4">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="K13" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
+      <c r="A13" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sbqd.xlsx
+++ b/sbqd.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
-  <si>
-    <t>余杭区。。。7.14密码应用方案设备清单</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+  <si>
+    <t>11111密码应用方案设备清单</t>
   </si>
   <si>
     <t>重要说明：
@@ -304,6 +304,31 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>国密SSL证书</t>
+  </si>
+  <si>
+    <t>数安时代</t>
+  </si>
+  <si>
+    <t>GDCA-DV-STAR-SSL</t>
+  </si>
+  <si>
+    <t>1、由受信任的数字证书颁发机构（CA），在验证身份信息（包括域名、主机名、服务器名、申请者身份、机构身份等）后颁发。	
+2、支持SM2等国产密码算法。</t>
+  </si>
+  <si>
+    <t>1.可以配置在服务器上。</t>
+  </si>
+  <si>
+    <t>提供DV通配符国密SSL证书，有效身份证书，有效期1年。</t>
+  </si>
+  <si>
+    <t>站点证书</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>密码应用技术服务</t>
@@ -606,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="14.0" ySplit="3.0" state="frozen" topLeftCell="O4" activePane="bottomRight"/>
@@ -1004,62 +1029,89 @@
         <v>68</v>
       </c>
       <c r="C11" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s" s="5">
+      <c r="D12" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="G11" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s" s="5">
+      <c r="G12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="J11" t="s" s="5">
+      <c r="J12" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="K11" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s" s="4">
+      <c r="K12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1071,16 +1123,33 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
